--- a/smallroad-web/Documentos/Planet Poker.xlsx
+++ b/smallroad-web/Documentos/Planet Poker.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gil Rodrigues\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14556" windowHeight="4344"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,10 +117,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,7 +143,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:B20" totalsRowShown="0" headerRowCellStyle="Título">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:B20" totalsRowShown="0">
   <autoFilter ref="A2:B20"/>
   <tableColumns count="2">
     <tableColumn id="1" name="FERRAMENTAS"/>
@@ -422,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -433,10 +429,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -450,7 +446,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>20</v>
       </c>
     </row>
@@ -458,7 +454,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>40</v>
       </c>
     </row>
@@ -466,7 +462,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>100</v>
       </c>
     </row>
@@ -474,7 +470,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>20</v>
       </c>
     </row>
@@ -482,7 +478,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
     </row>
@@ -490,7 +486,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>100</v>
       </c>
     </row>
@@ -498,7 +494,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
     </row>
@@ -506,7 +502,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
     </row>
@@ -514,7 +510,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -522,7 +518,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -530,7 +526,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>40</v>
       </c>
     </row>
@@ -538,7 +534,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>20</v>
       </c>
     </row>
@@ -546,7 +542,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
     </row>
@@ -554,7 +550,7 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>20</v>
       </c>
     </row>
@@ -562,7 +558,7 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>40</v>
       </c>
     </row>
@@ -570,7 +566,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>40</v>
       </c>
     </row>
@@ -578,12 +574,12 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
